--- a/Software/MANH.xlsx
+++ b/Software/MANH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71B236E-2201-A748-B1F1-7F4B513A0389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB13F29D-2A8B-644F-9CC3-32A8E72B4E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1947,11 +1947,11 @@
     <v>Powered by Refinitiv</v>
     <v>307.5</v>
     <v>199.22499999999999</v>
-    <v>1.5091000000000001</v>
-    <v>14.6</v>
-    <v>5.4799E-2</v>
-    <v>-4.32</v>
-    <v>-1.5371999999999999E-2</v>
+    <v>1.5092000000000001</v>
+    <v>2.64</v>
+    <v>9.3939999999999996E-3</v>
+    <v>0.01</v>
+    <v>3.5249999999999996E-5</v>
     <v>USD</v>
     <v>Manhattan Associates, Inc. sells, deploys, services and maintains software solutions designed to manage supply chains, inventory and omnichannel operations for retailers, wholesalers, manufacturers, logistics providers and other organizations. The Company operates through three geographical segments: North and Latin America; Europe, the Middle East and Africa (EMEA); and Asia Pacific (APAC). It provides companies the tools needed to manage distribution and optimize transportation costs throughout their entire commercial network. Its solutions consist of software, services, and hardware, which coordinate people, workflows, assets, events, and tasks holistically across the functions linked in a supply chain from planning through execution. These solutions also help coordinate the actions, data exchange, and communication of participants in supply chain ecosystems, such as manufacturers, suppliers, distributors, trading partners, transportation providers, channels, and consumers.</v>
     <v>4700</v>
@@ -1959,25 +1959,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2300 Windy Ridge Parkway Tenth Floor, ATLANTA, GA, 30339 US</v>
-    <v>285</v>
+    <v>287</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45602.961304027347</v>
+    <v>45603.998560185159</v>
     <v>0</v>
-    <v>278.45999999999998</v>
-    <v>17163985938</v>
+    <v>282.11</v>
+    <v>17325224677</v>
     <v>MANHATTAN ASSOCIATES, INC.</v>
     <v>MANHATTAN ASSOCIATES, INC.</v>
-    <v>283.95</v>
-    <v>79.965299999999999</v>
-    <v>266.43</v>
+    <v>282.11</v>
+    <v>80.716300000000004</v>
     <v>281.02999999999997</v>
-    <v>276.70999999999998</v>
+    <v>283.67</v>
+    <v>283.68</v>
     <v>61075280</v>
     <v>MANH</v>
     <v>MANHATTAN ASSOCIATES, INC. (XNAS:MANH)</v>
-    <v>609018</v>
-    <v>469945</v>
+    <v>430437</v>
+    <v>473722</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2871,7 +2871,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2904,14 +2904,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>281.02999999999997</v>
+        <v>283.67</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>16.503832632692308</v>
+        <v>16.658869881730769</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2951,14 +2951,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>5.4799E-2</v>
+        <v>9.3939999999999996E-3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>59.804829052264807</v>
+        <v>60.366636505226481</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2999,14 +2999,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>17163985938</v>
+        <v>17325224677</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>1.7128888421488523E-2</v>
+        <v>1.6969476903251821E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3048,7 +3048,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.5091000000000001</v>
+        <v>1.5092000000000001</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.62641167862767844</v>
+        <v>-0.62988851145604574</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
